--- a/uploads/public/office/test.xlsx
+++ b/uploads/public/office/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="9015"/>
+    <workbookView windowWidth="31710" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,6 +213,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,12 +328,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,55 +524,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
@@ -580,75 +584,84 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,145 +978,148 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
